--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474079.623307122</v>
+        <v>2492454.312773242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>180.1644935464954</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>144.9802040859634</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1568209712019</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>272.8544753290764</v>
+        <v>363.8221990886541</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>139.5220440822054</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>79.3292071608917</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>386.07358886354</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.1303287497572</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>97.34004921506737</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>88.81413946882508</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5678108961689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.59669811656391</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>143.815567999065</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>21.83881304669672</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>96.09843098023707</v>
+        <v>18.48113057047549</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>81.25284691325786</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>11.34240411074586</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>88.08354545359801</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>231.8537565100556</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>122.6519788371614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.1706059301398</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.5688164088678</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>48.46728683286327</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.3062600431768</v>
+        <v>106.6322550687624</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.40888046594348</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986229</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>51.45041645577362</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.94362707343105</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>101.2898147863567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.263756178945</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>242.8728194852198</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>242.8728194852198</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>235.9273187360164</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.863596243066</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.863596243066</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5912469122717</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>722.2873163082934</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C5" t="n">
-        <v>722.2873163082934</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D5" t="n">
-        <v>722.2873163082934</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="E5" t="n">
-        <v>336.4990637100491</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="F5" t="n">
-        <v>329.5535629608457</v>
+        <v>902.1008485858923</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>2300.223357192298</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>2300.223357192298</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V7" t="n">
-        <v>647.9984719227052</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W7" t="n">
-        <v>358.5813018857447</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>2469.159540120205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.388532134052</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>340.388532134052</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4215814289018</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4215814289018</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="V10" t="n">
-        <v>629.8057021710126</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W10" t="n">
-        <v>340.388532134052</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X10" t="n">
-        <v>340.388532134052</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.388532134052</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>3254.09465985463</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.135741824786</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>964.135741824786</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>964.135741824786</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>964.135741824786</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.135741824786</v>
+        <v>333.8182909469084</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,16 +5303,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>134.1834531941888</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>134.1834531941888</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>134.1834531941888</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>3169.469405338474</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>820.5263570570736</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C19" t="n">
-        <v>820.5263570570736</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>820.5263570570736</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>672.6132634746805</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="X19" t="n">
-        <v>820.5263570570736</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y19" t="n">
-        <v>820.5263570570736</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,13 +5762,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,10 +5777,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>3190.928350499668</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>3959.29649689213</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706318</v>
+        <v>4074.382392142254</v>
       </c>
       <c r="C22" t="n">
-        <v>362.4615353427249</v>
+        <v>3905.446209214347</v>
       </c>
       <c r="D22" t="n">
-        <v>362.4615353427249</v>
+        <v>3905.446209214347</v>
       </c>
       <c r="E22" t="n">
-        <v>362.4615353427249</v>
+        <v>3757.533115631953</v>
       </c>
       <c r="F22" t="n">
-        <v>362.4615353427249</v>
+        <v>3757.533115631953</v>
       </c>
       <c r="G22" t="n">
-        <v>194.2862136625455</v>
+        <v>3589.357793951774</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706318</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706318</v>
+        <v>4074.382392142254</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,25 +5981,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>732.169830515405</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1054.338276203878</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="X25" t="n">
-        <v>1275.130855347408</v>
+        <v>4070.931780257204</v>
       </c>
       <c r="Y25" t="n">
-        <v>1054.338276203878</v>
+        <v>4070.931780257204</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,7 +6467,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>751.8065029144456</v>
       </c>
       <c r="W31" t="n">
-        <v>3803.838860774509</v>
+        <v>751.8065029144456</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060205</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164282</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6768,7 +6768,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0685056491545</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1323227212476</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D34" t="n">
-        <v>260.0156833089119</v>
+        <v>559.3346142065632</v>
       </c>
       <c r="E34" t="n">
-        <v>260.0156833089119</v>
+        <v>411.4215206241701</v>
       </c>
       <c r="F34" t="n">
-        <v>260.0156833089119</v>
+        <v>411.4215206241701</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>243.2461989439907</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028583</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>2982.951835641178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697672</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>706.2262780943954</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>706.2262780943954</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>706.2262780943954</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7400,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.738453580939</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P42" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4202.604530983114</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="C43" t="n">
-        <v>4033.668348055212</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="D43" t="n">
-        <v>4033.668348055212</v>
+        <v>3661.543520000828</v>
       </c>
       <c r="E43" t="n">
-        <v>3885.755254472819</v>
+        <v>3661.543520000828</v>
       </c>
       <c r="F43" t="n">
-        <v>3738.865306974908</v>
+        <v>3661.543520000828</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294729</v>
+        <v>3661.543520000828</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>3511.125511548771</v>
       </c>
       <c r="I43" t="n">
         <v>3459.155393916677</v>
@@ -7579,40 +7579,40 @@
         <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
         <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576119</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U43" t="n">
-        <v>4749.779469576119</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="V43" t="n">
-        <v>4749.779469576119</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="W43" t="n">
-        <v>4749.779469576119</v>
+        <v>4260.442289454711</v>
       </c>
       <c r="X43" t="n">
-        <v>4521.789918678102</v>
+        <v>4032.452738556693</v>
       </c>
       <c r="Y43" t="n">
-        <v>4300.997339534572</v>
+        <v>3811.660159413163</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,40 +7658,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>485.404702608941</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L45" t="n">
-        <v>732.169830515405</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916675</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>195.1399470900142</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>3782.260917288848</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>3679.947973060205</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060205</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916675</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>73.53204524669997</v>
+        <v>91.23759968302079</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,25 +9483,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>158.8724419039325</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>73.53204524669985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>38.86002301949938</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>213.2603911806617</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524669994</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>91.01784071311222</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.047662122043477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.8243499063673</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.605480023866278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>264.3985393518806</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>52.81539738729906</v>
+        <v>130.4326977970606</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.99397418536998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>214.3672512782913</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>91.74843472833929</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>20.28388681377237</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0576765518758</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>5.322962533237785</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>4.345011958668351</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>238.0557115037277</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.278393308918</v>
+        <v>111.9523982833323</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.42309971599381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>58.96882900849837</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>49.49033557313813</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>185.2331835502343</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371448</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26506,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234064.7283650097</v>
+        <v>-231536.4072015673</v>
       </c>
       <c r="C6" t="n">
-        <v>355903.1508495347</v>
+        <v>358431.4720129773</v>
       </c>
       <c r="D6" t="n">
-        <v>355903.1508495349</v>
+        <v>358431.4720129775</v>
       </c>
       <c r="E6" t="n">
-        <v>-61942.13760934901</v>
+        <v>-59907.31837135188</v>
       </c>
       <c r="F6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055437</v>
       </c>
       <c r="G6" t="n">
-        <v>463217.8988675472</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="H6" t="n">
-        <v>463217.8988675473</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="I6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="J6" t="n">
-        <v>286794.679674954</v>
+        <v>288829.4989129511</v>
       </c>
       <c r="K6" t="n">
-        <v>463217.8988675472</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="L6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055436</v>
       </c>
       <c r="M6" t="n">
-        <v>328416.8836337101</v>
+        <v>330451.7028717065</v>
       </c>
       <c r="N6" t="n">
-        <v>463217.8988675469</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="O6" t="n">
-        <v>463217.8988675473</v>
+        <v>465252.718105544</v>
       </c>
       <c r="P6" t="n">
-        <v>463217.8988675472</v>
+        <v>465252.7181055441</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>233.6196764742996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>224.7508965925056</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>117.5528344178352</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.9296946917186</v>
+        <v>49.96197093214084</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>6.911918564363788</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>172.8084361629363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.1643497925135762</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01521020026175</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>154.7975941087606</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003113</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>383.9564222971663</v>
+        <v>401.661976733487</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599568</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36370,7 +36370,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>322.7897502027242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>245.953437951024</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>462.518096136686</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37631,16 +37631,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.8510818313024</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346392</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492454.312773242</v>
+        <v>2567983.982438047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>180.1644935464954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>234.5529121680386</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>363.8221990886541</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>105.0314420927888</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5220440822054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>59.94338340120333</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>78.41404262324713</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.07358886354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1303287497572</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>198.5424032384319</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,10 +1429,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81413946882508</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.4604131438946</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.59669811656391</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.19551414248158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>119.9743959987152</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2056,10 +2058,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>21.83881304669672</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>100.423698006726</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.48113057047549</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>221.4463743615492</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>11.34240411074586</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.08354545359801</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.37396633929979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>172.7067178467423</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>231.8537565100556</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>144.5688164088678</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.4475183248278</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>80.60579433720712</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>48.46728683286327</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>3.530521831422091</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.6322550687624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.7559579568113</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.45041645577362</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>96.94362707343105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.1385180919704</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>601.1385180919704</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>242.8728194852198</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>242.8728194852198</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>235.9273187360164</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.1385180919704</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.312047941846</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.312047941846</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D5" t="n">
-        <v>909.0463493350958</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="E5" t="n">
-        <v>909.0463493350958</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="F5" t="n">
-        <v>902.1008485858923</v>
+        <v>577.9991556724693</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>160.0353475706562</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2469.159540120205</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>2300.223357192298</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>2300.223357192298</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>2159.291999533505</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018222</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U7" t="n">
-        <v>2697.149091018222</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V7" t="n">
-        <v>2697.149091018222</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W7" t="n">
-        <v>2697.149091018222</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>2469.159540120205</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>2469.159540120205</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>962.0987983716307</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>962.0987983716307</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>962.0987983716307</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>551.1128935820232</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>133.14908548021</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990286</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729206</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1715.075343644822</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>281.2479710834698</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W10" t="n">
-        <v>281.2479710834698</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5030,49 +5032,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>2771.824048372322</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>3254.09465985463</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>3583.957287518663</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
-        <v>4253.421048821322</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P12" t="n">
-        <v>4773.721670557069</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.8182909469084</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303.1196361220957</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C16" t="n">
-        <v>134.1834531941888</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="D16" t="n">
-        <v>134.1834531941888</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="E16" t="n">
-        <v>134.1834531941888</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>149.9398330183481</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>149.9398330183481</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>149.9398330183481</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.1196361220957</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>3169.469405338474</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602625</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5704,19 +5706,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1141.996344791358</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1141.996344791358</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W19" t="n">
-        <v>1141.996344791358</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X19" t="n">
-        <v>914.0067938933407</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y19" t="n">
-        <v>914.0067938933407</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,22 +5740,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3190.928350499668</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3959.29649689213</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4074.382392142254</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C22" t="n">
-        <v>3905.446209214347</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>3905.446209214347</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>3757.533115631953</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3757.533115631953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3589.357793951774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4549.85945949167</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>4295.174971285784</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>4295.174971285784</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>4295.174971285784</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y22" t="n">
-        <v>4074.382392142254</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3889.283315426964</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C25" t="n">
-        <v>3889.283315426964</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426964</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426964</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4371.805924143403</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>4371.805924143403</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="W25" t="n">
-        <v>4082.388754106442</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="X25" t="n">
-        <v>4070.931780257204</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y25" t="n">
-        <v>4070.931780257204</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2292.946699347401</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>554.4977260965289</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>554.4977260965289</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>554.4977260965289</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>554.4977260965289</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>407.6077785986186</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>239.4324569184392</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065435</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.0396462065435</v>
+        <v>736.1461909267687</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>3540.192194764784</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>3973.880983602626</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>523.8169520164282</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="C31" t="n">
-        <v>523.8169520164282</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="D31" t="n">
-        <v>523.8169520164282</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164282</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185178</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916671</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380581</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625192</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4486.483332781621</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4197.354693995179</v>
       </c>
       <c r="V31" t="n">
-        <v>751.8065029144456</v>
+        <v>4197.354693995179</v>
       </c>
       <c r="W31" t="n">
-        <v>751.8065029144456</v>
+        <v>3907.937523958219</v>
       </c>
       <c r="X31" t="n">
-        <v>523.8169520164282</v>
+        <v>3679.947973060201</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.8169520164282</v>
+        <v>3459.155393916671</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6682,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2338.69837048303</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4512536188989</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C34" t="n">
-        <v>709.4512536188989</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D34" t="n">
-        <v>559.3346142065632</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E34" t="n">
-        <v>411.4215206241701</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>411.4215206241701</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>243.2461989439907</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6865,43 +6867,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471248</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771466</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>1209.787631771466</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188989</v>
+        <v>1095.194178918105</v>
       </c>
       <c r="X34" t="n">
-        <v>709.4512536188989</v>
+        <v>1095.194178918105</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4512536188989</v>
+        <v>874.4015997745747</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2982.951835641178</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M36" t="n">
-        <v>3751.319982033639</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697672</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916369</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.5778132641557</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362488</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362488</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362488</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W37" t="n">
-        <v>706.2262780943954</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X37" t="n">
-        <v>706.2262780943954</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y37" t="n">
-        <v>706.2262780943954</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,19 +7259,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>712.8170085027681</v>
+        <v>717.1440534185987</v>
       </c>
       <c r="C40" t="n">
-        <v>712.8170085027681</v>
+        <v>548.2078704906918</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>398.091231078356</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>398.091231078356</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>251.2012835804457</v>
       </c>
       <c r="G40" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W40" t="n">
-        <v>820.5263570570736</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X40" t="n">
-        <v>820.5263570570736</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y40" t="n">
-        <v>712.8170085027681</v>
+        <v>898.7925182488384</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>2736.186707734712</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>2982.951835641176</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623274</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3811.660159413163</v>
+        <v>3946.383537937097</v>
       </c>
       <c r="C43" t="n">
-        <v>3811.660159413163</v>
+        <v>3777.44735500919</v>
       </c>
       <c r="D43" t="n">
-        <v>3661.543520000828</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E43" t="n">
-        <v>3661.543520000828</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F43" t="n">
-        <v>3661.543520000828</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G43" t="n">
-        <v>3661.543520000828</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>3511.125511548771</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.859459491671</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V43" t="n">
-        <v>4549.859459491671</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W43" t="n">
-        <v>4260.442289454711</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X43" t="n">
-        <v>4032.452738556693</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="Y43" t="n">
-        <v>3811.660159413163</v>
+        <v>4071.38955607529</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,40 +7660,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.2565865023499</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>345.2565865023499</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>195.1399470900142</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W46" t="n">
-        <v>754.894602230607</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X46" t="n">
-        <v>526.9050513325897</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y46" t="n">
-        <v>526.9050513325897</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504737</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>91.23759968302079</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>158.8724419039325</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,25 +9716,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>230.7151863772035</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>297.2466435761034</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>38.86002301949938</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.7151863772035</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>104.8749102765744</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>213.2603911806617</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>308.1251096272033</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806608</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,13 +11378,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01784071311222</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2492422451425</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.8243499063673</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>58.2237313217904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.85758418322207</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>264.3985393518806</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.82312309190185</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>130.4326977970606</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>30.69126896227883</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>214.3672512782913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.74843472833929</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>118.5398620282363</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>48.84084321164693</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>20.28388681377237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.345011958668351</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>173.0754800117632</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>68.00967868100524</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>238.0557115037277</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>162.9630466319555</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.9523982833323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>56.07602222512602</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>58.96882900849837</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>49.49033557313813</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>71.18267187568719</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371443</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.327398213</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982131</v>
-      </c>
       <c r="E2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065631</v>
-      </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065629</v>
@@ -26338,22 +26340,22 @@
         <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.861628258540615e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.861628258540615e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26442,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015673</v>
+        <v>-231536.4072015672</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.4720129773</v>
+        <v>358431.4720129769</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.4720129775</v>
+        <v>358431.4720129771</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135188</v>
+        <v>-59907.31837135243</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055437</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055442</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="H6" t="n">
-        <v>465252.7181055439</v>
+        <v>465252.7181055441</v>
       </c>
       <c r="I6" t="n">
         <v>465252.7181055439</v>
@@ -26546,16 +26548,16 @@
         <v>288829.4989129511</v>
       </c>
       <c r="K6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="L6" t="n">
-        <v>465252.7181055436</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="M6" t="n">
-        <v>330451.7028717065</v>
+        <v>330451.7028717068</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="O6" t="n">
         <v>465252.718105544</v>
@@ -26710,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>233.6196764742996</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>114.6880565493744</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104604</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>49.96197093214084</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>218.8913306715683</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>6.911918564363788</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>152.2021555488156</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>245.50873014111</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1643497925135762</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01521020026175</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>53.59524008539606</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.060977512742252e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29697,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>5.637977257469299e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29937,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.637977257469299e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003113</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>401.661976733487</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>408.1301468599568</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>541.1395634276697</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>504.340058507628</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>245.953437951024</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>541.1395634276697</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745873</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799342</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>287.7526615081896</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789782</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>462.518096136686</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>618.5494866776696</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2567983.982438047</v>
+        <v>2560966.967546335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>156.7219365231167</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>234.5529121680386</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="C4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>105.0314420927888</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>59.94338340120333</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>216.8327722783655</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>78.41404262324713</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>320.797539652425</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>198.5424032384319</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.4604131438946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.19551414248158</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>210.0877336961557</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.9743959987152</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.423698006726</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>221.4463743615492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.37396633929979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>137.3733859008877</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>172.7067178467423</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>113.4475183248278</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>5.107731335945625</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.60579433720712</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.530521831422091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.7559579568113</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>215.0546805228902</v>
+        <v>173.3098319902318</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2186.563601017709</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.097842756629</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259435</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>584.9446564216728</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>584.9446564216728</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>577.9991556724693</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>160.0353475706562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>638.1631929376285</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>638.1631929376285</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="U7" t="n">
-        <v>638.1631929376285</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V7" t="n">
-        <v>638.1631929376285</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>962.0987983716307</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>962.0987983716307</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>962.0987983716307</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>551.1128935820232</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>133.14908548021</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>527.5811021474123</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>527.5811021474123</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X10" t="n">
-        <v>527.5811021474123</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2292.946699347402</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.969180129611</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909234</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.378566915401</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>1042.378566915401</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>465.7659634441654</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>296.8297805162584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>296.8297805162584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>296.8297805162584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>149.9398330183481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>149.9398330183481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>149.9398330183481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1286.706438541584</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441654</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y16" t="n">
-        <v>465.7659634441654</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033469</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>909.3712637033469</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>345.5451177528689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>755.183133481126</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>527.1935825831087</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>562.3990000507114</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>562.3990000507114</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.4977260965289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>554.4977260965289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>554.4977260965289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>554.4977260965289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>407.6077785986186</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>239.4324569184392</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>736.1461909267687</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,34 +6475,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764784</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916671</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916671</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916671</v>
+        <v>814.01910241245</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916671</v>
+        <v>666.1060088300569</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916671</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916671</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916671</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380581</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4486.483332781621</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4197.354693995179</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995179</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958219</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060201</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916671</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.753134944335</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
         <v>208.7516828383384</v>
@@ -6867,43 +6867,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471248</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771466</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771466</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1095.194178918105</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.194178918105</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.4015997745747</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>809.2953582963255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,37 +7174,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.1440534185987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>548.2078704906918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>398.091231078356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>398.091231078356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>251.2012835804457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>898.7925182488384</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>898.7925182488384</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>898.7925182488384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>898.7925182488384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2736.186707734712</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2982.951835641176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3946.383537937097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3777.44735500919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4326.074044281177</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4071.38955607529</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>4071.38955607529</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>4071.38955607529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4071.38955607529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1281.689320534781</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V46" t="n">
-        <v>1281.689320534781</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W46" t="n">
-        <v>1281.689320534781</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>1281.689320534781</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.12263706262978</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>297.2466435761034</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>104.8749102765744</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2603911806608</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.2492422451425</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>58.2237313217904</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>76.14961870242169</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.85758418322207</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>66.82312309190185</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>30.69126896227883</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>118.5398620282363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>8.04766212204359</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>48.84084321164693</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>173.0754800117632</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.4769220161492</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.00967868100524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>162.9630466319555</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.07602222512602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>71.18267187568719</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371443</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="14">
@@ -26319,43 +26319,43 @@
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065626</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.861628258540615e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>3.861628258540615e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26441,25 +26441,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230238</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>29303.5455523024</v>
-      </c>
       <c r="L4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>358431.4720129769</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.4720129771</v>
+        <v>358431.472012977</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135243</v>
+        <v>-60881.90963107354</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055442</v>
+        <v>464278.1268458224</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055438</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="H6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458224</v>
       </c>
       <c r="I6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="J6" t="n">
-        <v>288829.4989129511</v>
+        <v>287854.9076532293</v>
       </c>
       <c r="K6" t="n">
-        <v>465252.7181055442</v>
+        <v>464278.1268458221</v>
       </c>
       <c r="L6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="M6" t="n">
-        <v>330451.7028717068</v>
+        <v>329477.1116119851</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.126845822</v>
       </c>
       <c r="O6" t="n">
-        <v>465252.718105544</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="P6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458221</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>250.1541092185948</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>114.6880565493744</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2908737214062</v>
       </c>
       <c r="C4" t="n">
-        <v>4.910330425104604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>218.8913306715683</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,22 +27666,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27824,10 +27824,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>152.2021555488156</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>8.20233317971875</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>245.50873014111</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>28.44342906498804</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>53.59524008539606</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>129.5185199959772</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.060977512742252e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>5.637977257469299e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5.637977257469299e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.1356698477039</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36214,13 +36214,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>504.340058507628</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>438.0694836745873</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799342</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789782</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>363.8358297686</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560966.967546335</v>
+        <v>2565906.230395368</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.90966800344418</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.85099796338665</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>216.8327722783655</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>320.797539652425</v>
+        <v>31.30158414437425</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>208.2793294336576</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>210.0877336961557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>201.9329840052133</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065119</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>36.5966981165643</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>137.3733859008877</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>174.3062600431768</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>112.8722262355888</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>173.3098319902318</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.947406166259</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.769918480429</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017246</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>2279.43975244315</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>1905.97399418207</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,19 +5363,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1286.706438541584</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1032.021950335697</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>742.6047802987359</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>742.6047802987359</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.6047802987359</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,13 +5928,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1379.229518531123</v>
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.1357418247858</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>964.1357418247858</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>814.01910241245</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>666.1060088300569</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="V31" t="n">
-        <v>964.1357418247858</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W31" t="n">
-        <v>964.1357418247858</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1357418247858</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.1357418247858</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7516828383384</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.7516828383384</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7605,16 +7605,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>789.0753054710162</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>789.0753054710162</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992674</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.4753596397814</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64.30500338171971</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>76.14961870242169</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>16.6516693468815</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709136</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>249.640654282013</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.04766212204359</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>191.2121017489008</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>112.2167382934142</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4769220161492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>54.37459486303904</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>112.9275204083455</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065627</v>
@@ -26340,22 +26340,22 @@
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26484,19 +26484,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-231536.4072015672</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.4720129769</v>
+        <v>358431.472012977</v>
       </c>
       <c r="D6" t="n">
         <v>358431.472012977</v>
       </c>
       <c r="E6" t="n">
-        <v>-60881.90963107354</v>
+        <v>-60004.77749732453</v>
       </c>
       <c r="F6" t="n">
-        <v>464278.1268458224</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="G6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795716</v>
       </c>
       <c r="H6" t="n">
-        <v>464278.1268458224</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="I6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="J6" t="n">
-        <v>287854.9076532293</v>
+        <v>288732.0397869787</v>
       </c>
       <c r="K6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795722</v>
       </c>
       <c r="L6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795716</v>
       </c>
       <c r="M6" t="n">
-        <v>329477.1116119851</v>
+        <v>330354.2437457343</v>
       </c>
       <c r="N6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="O6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="P6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795717</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,16 +26752,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.2908737214062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>25.56873457136755</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>6.348961225150354</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>8.20233317971875</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>28.44342906498804</v>
+        <v>317.9393845730388</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.5185199959772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.30532391843715</v>
       </c>
     </row>
     <row r="11">
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328948</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35509,7 +35509,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
